--- a/AUS_Data.xlsx
+++ b/AUS_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/jayden_dzierbicki_my_jcu_edu_au/Documents/Desktop/MA5832/Assignment/Assignment 3/Dzierbicki_Jayden_MA5832_Assessment_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/jayden_dzierbicki_my_jcu_edu_au/Documents/Desktop/MA5832/Assignment/Assignment 3/Machine-Learning-and-Artificial-Neural-Network-to-Predict-Unemployment-/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="17" documentId="11_15EAC42D954059EF11E6279651314CBAED3618A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799C8C19-0D5F-498C-8ED9-C98DE3FBCD94}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17115" yWindow="2775" windowWidth="13035" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,7 +814,7 @@
   <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AUS_Data.xlsx
+++ b/AUS_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjcuedu-my.sharepoint.com/personal/jayden_dzierbicki_my_jcu_edu_au/Documents/Desktop/MA5832/Assignment/Assignment 3/Machine-Learning-and-Artificial-Neural-Network-to-Predict-Unemployment-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_15EAC42D954059EF11E6279651314CBAED3618A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799C8C19-0D5F-498C-8ED9-C98DE3FBCD94}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_15EAC42D954059EF11E6279651314CBAED3618A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE527021-9AA7-443E-A079-383D95939E7E}"/>
   <bookViews>
-    <workbookView xWindow="-17115" yWindow="2775" windowWidth="13035" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28410" yWindow="405" windowWidth="13035" windowHeight="14490" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,12 +157,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.0;\-0.0;0.0;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -220,12 +219,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,12 +247,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -272,11 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -813,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,7 +5392,7 @@
       <c r="H158" s="2">
         <v>227.3</v>
       </c>
-      <c r="I158" s="10" t="s">
+      <c r="I158" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5408,7 +5400,7 @@
       <c r="A159" s="1">
         <v>43983</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="8">
         <v>6.9666666666666703</v>
       </c>
       <c r="C159" s="2">
@@ -5429,7 +5421,7 @@
       <c r="H159" s="2">
         <v>129.19999999999999</v>
       </c>
-      <c r="I159" s="10" t="s">
+      <c r="I159" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5437,7 +5429,7 @@
       <c r="A160" s="1">
         <v>44075</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="8">
         <v>7.06666666666667</v>
       </c>
       <c r="C160" s="2">
@@ -5458,12 +5450,38 @@
       <c r="H160" s="2">
         <v>206.1</v>
       </c>
-      <c r="I160" s="10" t="s">
+      <c r="I160" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H161" s="8"/>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B161">
+        <v>6.8</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G161" s="2">
+        <v>117.2</v>
+      </c>
+      <c r="H161" s="2">
+        <v>259.2</v>
+      </c>
+      <c r="I161" s="9">
+        <v>256387.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
